--- a/biology/Botanique/Jardin_botanique_de_l'université_de_Strasbourg/Jardin_botanique_de_l'université_de_Strasbourg.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_l'université_de_Strasbourg/Jardin_botanique_de_l'université_de_Strasbourg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_l%27universit%C3%A9_de_Strasbourg</t>
+          <t>Jardin_botanique_de_l'université_de_Strasbourg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique de l'université de Strasbourg est un jardin botanique fondé en 1619 au sein de l'ancienne Académie protestante de la ville, devenu deux ans plus tard université de Strasbourg. Sa création par des professeurs de la faculté de médecine de Strasbourg est due au besoin de formation de leurs étudiants.
-À l'origine situé dans le quartier de la Krutenau, il déménage en 1884 au cœur du campus historique dans la Neustadt à l'arrière du palais universitaire après l'annexion de l'Alsace-Lorraine[2].
+À l'origine situé dans le quartier de la Krutenau, il déménage en 1884 au cœur du campus historique dans la Neustadt à l'arrière du palais universitaire après l'annexion de l'Alsace-Lorraine.
 Il est le deuxième plus ancien jardin botanique de France après celui de Montpellier créé en 1593.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_l%27universit%C3%A9_de_Strasbourg</t>
+          <t>Jardin_botanique_de_l'université_de_Strasbourg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,10 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le premier jardin
-L'université de Strasbourg trouve ses origines dans la création du Gymnase Jean-Sturm, devenu une Académie en 1566 alors doté de quatre facultés : Théologie, Droit, Médecine et Philosophie. L'Académie souhaite la création d'un jardin botanique. Des négociations entre le Sénat de la ville, le recteur Storck et le couvent Saint-Nicolas-aux-Ondes permettent d’obtenir une partie du cimetière situé dans l'actuel quartier maraîcher de la Krutenau signifiant « plaine à choux » en alsacien. Il est alors agencé à la française et ses collections sont progressivement enrichies avec la création de serres et des agrandissements successifs pour atteindre presque un hectare. Dès 1622, il est qualifié de « splendissimus » par le professeur de botanique et d'anatomie Gaspard Bauhin[2],[3].
-Le jardin de l’université impériale
-La guerre franco-allemande de 1870 empêche l'accès aux cimetières extra-muros. Le Jardin botanique est alors utilisé comme lieu de sépulture. Dès son couronnement comme Empereur d'Allemagne (en 1871), Guillaume Ier lance un programme ambitieux pour la reconstruction de Strasbourg, avec notamment la création de l’Université impériale dès 1880. Le jardin, sous la direction du botaniste Anton de Bary, est alors annexé à cette université impériale. Inauguré le 26 novembre 1884, on y aménage un arboretum et des serres monumentales[2].
+          <t>Le premier jardin</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'université de Strasbourg trouve ses origines dans la création du Gymnase Jean-Sturm, devenu une Académie en 1566 alors doté de quatre facultés : Théologie, Droit, Médecine et Philosophie. L'Académie souhaite la création d'un jardin botanique. Des négociations entre le Sénat de la ville, le recteur Storck et le couvent Saint-Nicolas-aux-Ondes permettent d’obtenir une partie du cimetière situé dans l'actuel quartier maraîcher de la Krutenau signifiant « plaine à choux » en alsacien. Il est alors agencé à la française et ses collections sont progressivement enrichies avec la création de serres et des agrandissements successifs pour atteindre presque un hectare. Dès 1622, il est qualifié de « splendissimus » par le professeur de botanique et d'anatomie Gaspard Bauhin,.
 </t>
         </is>
       </c>
@@ -530,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_l%27universit%C3%A9_de_Strasbourg</t>
+          <t>Jardin_botanique_de_l'université_de_Strasbourg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,90 +560,203 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Le jardin de l’université impériale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La guerre franco-allemande de 1870 empêche l'accès aux cimetières extra-muros. Le Jardin botanique est alors utilisé comme lieu de sépulture. Dès son couronnement comme Empereur d'Allemagne (en 1871), Guillaume Ier lance un programme ambitieux pour la reconstruction de Strasbourg, avec notamment la création de l’Université impériale dès 1880. Le jardin, sous la direction du botaniste Anton de Bary, est alors annexé à cette université impériale. Inauguré le 26 novembre 1884, on y aménage un arboretum et des serres monumentales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jardin_botanique_de_l'université_de_Strasbourg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_l%27universit%C3%A9_de_Strasbourg</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description du jardin botanique actuel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La jardin actuel est située à l'arrière du campus historique. En son centre se dresse l'observatoire astronomique de Strasbourg. Il comporte également une pièce d'eau. 
 Très gravement endommagées par un orage en 1958, les grandes serres sont détruites en 1963, pour laisser la place aux nouveaux bâtiments de l’Institut de Botanique. La réalisation des locaux actuels et de la serre froide et serre chaude  est effectuée sous la direction du doyen Henri Jean Maresquelle, directeur du Jardin de 1945 à 1968. La construction est achevée en 1967.
-Le Jardin botanique conserve la même superficie qu'à sa création. Seule la serre de Bary est conservée et partiellement rénovée[4].
-Le jardin botanique de l’Université de Strasbourg est inscrit aux Monuments historiques le 7 décembre 1990. La serre dodécagonale de Bary (ancienne serre Victoria) est classée monument historique le 25 mars 1993[5].
-Le Jardin Botanique est également classé Jardin remarquable depuis 2004[6].
-Le cadran solaire
-Le cadran solaire du jardin a été remis en place en 1995, après avoir été oublié dans les entrepôts du barrage Vauban, à Strasbourg où il a été retrouvé en 1993. Initialement, il se trouvait dans le premier jardin botanique de Strasbourg, avant d'être déplacé[7].
+Le Jardin botanique conserve la même superficie qu'à sa création. Seule la serre de Bary est conservée et partiellement rénovée.
+Le jardin botanique de l’Université de Strasbourg est inscrit aux Monuments historiques le 7 décembre 1990. La serre dodécagonale de Bary (ancienne serre Victoria) est classée monument historique le 25 mars 1993.
+Le Jardin Botanique est également classé Jardin remarquable depuis 2004.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jardin_botanique_de_l'université_de_Strasbourg</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_l%27universit%C3%A9_de_Strasbourg</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description du jardin botanique actuel</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le cadran solaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cadran solaire du jardin a été remis en place en 1995, après avoir été oublié dans les entrepôts du barrage Vauban, à Strasbourg où il a été retrouvé en 1993. Initialement, il se trouvait dans le premier jardin botanique de Strasbourg, avant d'être déplacé.
 Il est en grès des Vosges et composé de deux parties : le bloc gnomonique et un socle.
-Le bloc gnomonique est un petit rhombicuboctaèdre (polyèdre à 26 faces) de 53 cm[8]. Il est gravé de tracés et pourvu de styles (tiges de métal) sur 23 de ses faces, permettant la lecture de la même heure sur chacune d'elles, quelle que soit la position du soleil ou la saison.
-Le socle porte l'inscription « Academia decori horti ornamento ut quibus fovetur hortus radio solares ad hospitum commodum et oblectamentum in arte metiretur illustre coll scolarch pon cur MDCXCIV mens sept », qui se traduit par « Pour la gloire de l'Académie et pour l'ornementation du jardin afin qu'il mesure, selon les règles de l'art, les rayons du soleil grâce auxquels le jardin est réchauffé, pour la commodité et l'agrément des hôtes. Bien en lumière, le scholarque du collège l'a fait placer. Septembre 1694 »[9].
-Ce cadran solaire a été découvert et restauré par Mr Paul Schott[10]. Il a aussi découvert un document (Notes extraites de l'Histoire du Jardin Botanique de Strasbourg, offerte en 1858 aux membres de la session extraordinaire de la Société Botanique de France.) permettant de confirmer la datation visible sur le socle : « Ce fut pendant la gestion de Mappus, en 1694, que l'on construisit le cadran solaire, encore debout aujourd'hui dans le petit jardin Villars ; ce cadran disposé d’une manière fort ingénieuse, est destiné à donner l’heure pendant toutes les saisons de l’année et à toutes les heures du jour. ». Document signé A.F. Strasbourg ce 10 juillet 1858. (Laurent Apollinaire FEE 1789 – 1870 directeur du Jardin Botanique de Strasbourg de 1833 à 1870).
-Il existe d'autres cadrans solaires de ce type, un à Gundershoffen[11], un autre à Oberhausbergen, ou encore au mont Sainte-Odile.
+Le bloc gnomonique est un petit rhombicuboctaèdre (polyèdre à 26 faces) de 53 cm. Il est gravé de tracés et pourvu de styles (tiges de métal) sur 23 de ses faces, permettant la lecture de la même heure sur chacune d'elles, quelle que soit la position du soleil ou la saison.
+Le socle porte l'inscription « Academia decori horti ornamento ut quibus fovetur hortus radio solares ad hospitum commodum et oblectamentum in arte metiretur illustre coll scolarch pon cur MDCXCIV mens sept », qui se traduit par « Pour la gloire de l'Académie et pour l'ornementation du jardin afin qu'il mesure, selon les règles de l'art, les rayons du soleil grâce auxquels le jardin est réchauffé, pour la commodité et l'agrément des hôtes. Bien en lumière, le scholarque du collège l'a fait placer. Septembre 1694 ».
+Ce cadran solaire a été découvert et restauré par Mr Paul Schott. Il a aussi découvert un document (Notes extraites de l'Histoire du Jardin Botanique de Strasbourg, offerte en 1858 aux membres de la session extraordinaire de la Société Botanique de France.) permettant de confirmer la datation visible sur le socle : « Ce fut pendant la gestion de Mappus, en 1694, que l'on construisit le cadran solaire, encore debout aujourd'hui dans le petit jardin Villars ; ce cadran disposé d’une manière fort ingénieuse, est destiné à donner l’heure pendant toutes les saisons de l’année et à toutes les heures du jour. ». Document signé A.F. Strasbourg ce 10 juillet 1858. (Laurent Apollinaire FEE 1789 – 1870 directeur du Jardin Botanique de Strasbourg de 1833 à 1870).
+Il existe d'autres cadrans solaires de ce type, un à Gundershoffen, un autre à Oberhausbergen, ou encore au mont Sainte-Odile.
 			Le cadran solaire à multifaces.
 			Le bloc gnomonique.
 			Le cadran lors de sa découverte.
 			Le socle lors de sa découverte.
-Les serres monumentales
-Les serres monumentales, détruites en août 1958 par un violent orage de grêle, étaient composées d'une coupole centrale qui abritait la serre à palmiers (Palmenhaus) et de petites serres attenantes qui représentaient différents milieux naturels[2], notamment la « Serre Victoria » avec sa cheminée de chauffage en briques bien reconnaissable.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Jardin_botanique_de_l%27universit%C3%A9_de_Strasbourg</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jardin_botanique_de_l'université_de_Strasbourg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_l%27universit%C3%A9_de_Strasbourg</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description du jardin botanique actuel</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les serres monumentales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les serres monumentales, détruites en août 1958 par un violent orage de grêle, étaient composées d'une coupole centrale qui abritait la serre à palmiers (Palmenhaus) et de petites serres attenantes qui représentaient différents milieux naturels, notamment la « Serre Victoria » avec sa cheminée de chauffage en briques bien reconnaissable.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jardin_botanique_de_l'université_de_Strasbourg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_l%27universit%C3%A9_de_Strasbourg</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Buts</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce jardin a une triple vocation, botanique (en liaison avec l’Institut de botanique[12]), historique et universitaire.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce jardin a une triple vocation, botanique (en liaison avec l’Institut de botanique), historique et universitaire.
 Ouvert au public, il constitue un lieu de promenade particulièrement apprécié par les Strasbourgeois.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Jardin_botanique_de_l%27universit%C3%A9_de_Strasbourg</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jardin_botanique_de_l'université_de_Strasbourg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_l%27universit%C3%A9_de_Strasbourg</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Espèces remarquables présentes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
